--- a/DOCKER_Notes.xlsx
+++ b/DOCKER_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\KUBERNETES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\KUBERNETES\KUBERNATES-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421883EB-4C09-49F6-90A0-CE7102603BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0888F0A4-B38A-44C7-A551-CC3A1038D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="935" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="935" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
   <si>
     <t>Processes in Docker</t>
   </si>
@@ -1520,12 +1520,52 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>In Docker, services refer to the definition of how containers should behave in a particular application stack. They are typically defined in a Docker Compose file and can include attributes like the image to use, environment variables, ports to expose, and more. Services allow you to define and manage multiple containers that work together as a single application.</t>
+  </si>
+  <si>
+    <t>In Kubernetes, services play a similar but slightly different role compared to Docker. In Kubernetes, a service is an abstraction layer that defines a logical set of pods and a policy by which to access them.</t>
+  </si>
+  <si>
+    <t>Here's what it means:</t>
+  </si>
+  <si>
+    <r>
+      <t>Pods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Pods are the smallest deployable units in Kubernetes, and they typically consist of one or more containers that are tightly coupled and share resources. A service provides a consistent way to access a group of pods that perform the same function.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Kubernetes services define a policy for accessing the pods. This policy can include load balancing, service discovery, and routing traffic to the appropriate pods based on selectors.</t>
+    </r>
+  </si>
+  <si>
+    <t>Overall, Kubernetes services enable communication between different parts of an application or between different microservices within a larger application, providing a stable endpoint for accessing the functionality provided by the pods.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,6 +1645,18 @@
       <color rgb="FF2D2F31"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1626,7 +1678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1751,12 +1803,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1812,6 +1901,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3051,8 +3182,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>429457</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>187453</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>368428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3089,13 +3220,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3133,13 +3264,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3177,13 +3308,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3221,13 +3352,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3243,7 +3374,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2238375" y="8772525"/>
+          <a:off x="2238375" y="13916025"/>
           <a:ext cx="2486025" cy="2628900"/>
           <a:chOff x="2057400" y="8877300"/>
           <a:chExt cx="2486025" cy="2628900"/>
@@ -4348,6 +4479,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>153043</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9890E920-9C6E-586B-295E-F7A669A17DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="7086600"/>
+          <a:ext cx="4610743" cy="1505160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>400526</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>115171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3FDC1C-7049-F3D0-D24B-AC0F1DEFF9D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="8734425"/>
+          <a:ext cx="3410426" cy="6239746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5083,7 +5302,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5097,8 +5316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E08288-86DE-4D0F-88CB-293AD6B838D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="P87" sqref="P87"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5112,7 +5331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E968A3-27CD-41C6-A1BE-477E24C6A2F8}">
   <dimension ref="A28:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -5134,8 +5353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A177A3D2-AD79-4E2C-A4DE-4EF50C52E9A1}">
   <dimension ref="A22:S75"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5194,20 +5413,148 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44564C7F-FE87-4693-846A-FB35B87BFEE2}">
-  <dimension ref="A45"/>
+  <dimension ref="A25:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="45" spans="1:1" s="1" customFormat="1">
-      <c r="A45" s="2" t="s">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:10" ht="92.25" customHeight="1" thickBot="1">
+      <c r="A26" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" ht="63" customHeight="1">
+      <c r="A27" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.25">
+      <c r="A29" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="29"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="57" customHeight="1">
+      <c r="A31" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" ht="48" customHeight="1">
+      <c r="A32" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" ht="81.75" customHeight="1" thickBot="1">
+      <c r="A34" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="41"/>
+    </row>
+    <row r="54" spans="1:1" s="1" customFormat="1">
+      <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A34:J34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5217,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5DB8CF-3832-4E4C-9D9B-6B01B5DFFCC4}">
   <dimension ref="A28:Q127"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5641,8 +5988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FB489D-5AD4-4EA6-BB50-F8BF1BE48A25}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="S88" sqref="S88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5681,7 +6028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B930B79-D016-4C0D-A194-921EB4878AA1}">
   <dimension ref="A1:A166"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6305,7 +6652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B82084-1247-456B-8464-247E45FC3D3D}">
   <dimension ref="A1:A121"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/DOCKER_Notes.xlsx
+++ b/DOCKER_Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\KUBERNETES\KUBERNATES-STUDY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0888F0A4-B38A-44C7-A551-CC3A1038D4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12473B1F-9A35-4668-9743-92CF59F58ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="935" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="935" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="146">
   <si>
     <t>Processes in Docker</t>
   </si>
@@ -5299,14 +5299,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5316,7 +5322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E08288-86DE-4D0F-88CB-293AD6B838D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5331,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E968A3-27CD-41C6-A1BE-477E24C6A2F8}">
   <dimension ref="A28:A41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
@@ -5353,7 +5359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A177A3D2-AD79-4E2C-A4DE-4EF50C52E9A1}">
   <dimension ref="A22:S75"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
@@ -5415,8 +5421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44564C7F-FE87-4693-846A-FB35B87BFEE2}">
   <dimension ref="A25:J54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5564,7 +5570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5DB8CF-3832-4E4C-9D9B-6B01B5DFFCC4}">
   <dimension ref="A28:Q127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -5988,7 +5994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86FB489D-5AD4-4EA6-BB50-F8BF1BE48A25}">
   <dimension ref="A1:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="S88" sqref="S88"/>
     </sheetView>
   </sheetViews>
